--- a/xlsx/データアナリティクス基礎/例題_データアナリティクス基礎/例題8_遊園地テーマパーク入場者数.xlsx
+++ b/xlsx/データアナリティクス基礎/例題_データアナリティクス基礎/例題8_遊園地テーマパーク入場者数.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\JSTORAGE.jmam.local\users$\JM0835\山地の仕事\書籍\統計検定データサイエンス\データセット\例題\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JY810251\python\dataAnalyticsBasic\xlsx\データアナリティクス基礎\例題_データアナリティクス基礎\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5BEABA-9623-434E-99DE-96C9DD41AAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F324EE40-7066-45D3-9A37-529966AA5EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CAACAA5F-B557-42CA-A470-11E85E6F264F}"/>
+    <workbookView xWindow="13880" yWindow="0" windowWidth="24610" windowHeight="20340" activeTab="1" xr2:uid="{CAACAA5F-B557-42CA-A470-11E85E6F264F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>年</t>
     <rPh sb="0" eb="1">
@@ -65,6 +66,76 @@
       <t>ヒャクマンエン</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前年比</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンネンヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>成長率</t>
+    <rPh sb="0" eb="3">
+      <t>セイチョウリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3)</t>
+  </si>
+  <si>
+    <t>4)</t>
+  </si>
+  <si>
+    <t>5)</t>
+  </si>
+  <si>
+    <t>2000年指数化</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シスウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2015年指数化</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>シスウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2000年増加率</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>売上高（百万円）</t>
+  </si>
+  <si>
+    <t>入場者数（人）</t>
   </si>
 </sst>
 </file>
@@ -152,12 +223,32 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -169,7 +260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -194,20 +285,17 @@
     <xf numFmtId="38" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -215,12 +303,73 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -233,10 +382,1025 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>売上高（百万円）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>55928443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59224753</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73263027</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75357835</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72640170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70832169</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71368426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71466160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70244323</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>66912870</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>69702191</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63621828</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71623978</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>76116833</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78427889</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>81487000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>80392414</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>78705827</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>79303092</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>79462026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0_);[Red]\(#,##0\)</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>298532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>363039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>446386</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>427158</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>410826</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>405003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>422021</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>441710</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>456397</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>438443</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>462602</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>430166</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>500350</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>570533</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>606143</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>656033</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>658194</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>683291</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>711396</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>718416</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7AE4-4C88-A6AE-699B299209BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1056911120"/>
+        <c:axId val="1056911480"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1056911120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1056911480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1056911480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0_);[Red]\(#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1056911120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>274205</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>5196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>614796</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>208396</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27FACBE2-60B1-5AE9-F034-C0DC1DD89DA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -274,7 +1438,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -380,7 +1544,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -522,345 +1686,952 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D09A047-3278-4498-9952-8FCEE7F21F91}">
-  <dimension ref="A1:G21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172A9F68-FF2E-4C46-A878-E1C3E1ADBB1B}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.19921875" style="1" customWidth="1"/>
-    <col min="4" max="6" width="8.796875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" style="12" customWidth="1"/>
-    <col min="8" max="9" width="8.796875" customWidth="1"/>
+    <col min="1" max="1" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="21">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="6">
-        <v>2000</v>
-      </c>
-      <c r="B2" s="7">
-        <v>55928443</v>
-      </c>
-      <c r="C2" s="7">
-        <v>298532</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="2">
-        <v>2001</v>
-      </c>
-      <c r="B3" s="3">
-        <v>59224753</v>
-      </c>
-      <c r="C3" s="3">
-        <v>363039</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="2">
-        <v>2002</v>
-      </c>
-      <c r="B4" s="3">
-        <v>73263027</v>
-      </c>
-      <c r="C4" s="3">
-        <v>446386</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B5" s="3">
-        <v>75357835</v>
-      </c>
-      <c r="C5" s="3">
-        <v>427158</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <v>2004</v>
-      </c>
-      <c r="B6" s="3">
-        <v>72640170</v>
-      </c>
-      <c r="C6" s="3">
-        <v>410826</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
-        <v>2005</v>
-      </c>
-      <c r="B7" s="3">
-        <v>70832169</v>
-      </c>
-      <c r="C7" s="3">
-        <v>405003</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="2">
-        <v>2006</v>
-      </c>
-      <c r="B8" s="3">
-        <v>71368426</v>
-      </c>
-      <c r="C8" s="3">
-        <v>422021</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="2">
-        <v>2007</v>
-      </c>
-      <c r="B9" s="3">
-        <v>71466160</v>
-      </c>
-      <c r="C9" s="3">
-        <v>441710</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
-        <v>2008</v>
-      </c>
-      <c r="B10" s="3">
-        <v>70244323</v>
-      </c>
-      <c r="C10" s="3">
-        <v>456397</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
-        <v>2009</v>
-      </c>
-      <c r="B11" s="3">
-        <v>66912870</v>
-      </c>
-      <c r="C11" s="3">
-        <v>438443</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="3">
-        <v>69702191</v>
-      </c>
-      <c r="C12" s="3">
-        <v>462602</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="3">
-        <v>63621828</v>
-      </c>
-      <c r="C13" s="3">
-        <v>430166</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="2">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="3">
-        <v>71623978</v>
-      </c>
-      <c r="C14" s="3">
-        <v>500350</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="3">
-        <v>76116833</v>
-      </c>
-      <c r="C15" s="3">
-        <v>570533</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="2">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="3">
-        <v>78427889</v>
-      </c>
-      <c r="C16" s="3">
-        <v>606143</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="2">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="3">
-        <v>81487000</v>
-      </c>
-      <c r="C17" s="3">
-        <v>656033</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="2">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="3">
-        <v>80392414</v>
-      </c>
-      <c r="C18" s="3">
-        <v>658194</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="2">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="3">
-        <v>78705827</v>
-      </c>
-      <c r="C19" s="3">
-        <v>683291</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="2">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="3">
-        <v>79303092</v>
-      </c>
-      <c r="C20" s="3">
-        <v>711396</v>
-      </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="2">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="3">
-        <v>79462026</v>
-      </c>
-      <c r="C21" s="3">
-        <v>718416</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="1:3" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="22">
+        <v>0.85184218316455407</v>
+      </c>
+      <c r="C3" s="22">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D09A047-3278-4498-9952-8FCEE7F21F91}">
+  <dimension ref="A1:M39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="11" customWidth="1"/>
+    <col min="5" max="6" width="13.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="7">
+        <v>55928443</v>
+      </c>
+      <c r="C2" s="7">
+        <v>298532</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10">
+        <f>B2/B$2*100</f>
+        <v>100</v>
+      </c>
+      <c r="F2" s="10">
+        <f t="shared" ref="F2:F16" si="0">B2/B$17*100</f>
+        <v>68.634804324616198</v>
+      </c>
+      <c r="H2" s="15">
+        <f>(C2-C$2)/C$2</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="3">
+        <v>59224753</v>
+      </c>
+      <c r="C3" s="3">
+        <v>363039</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10">
+        <f>B3/B$2*100</f>
+        <v>105.89379897452179</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" si="0"/>
+        <v>72.680001718065455</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="15">
+        <f>(C3-C$2)/C$2</f>
+        <v>0.21608068816743264</v>
+      </c>
+      <c r="J3" s="15">
+        <f>(B3-B2)/B2</f>
+        <v>5.8937989745217828E-2</v>
+      </c>
+      <c r="K3" s="15">
+        <f>(C3-C2)/C2</f>
+        <v>0.21608068816743264</v>
+      </c>
+      <c r="M3" s="16">
+        <f>(B3-B2)/B2</f>
+        <v>5.8937989745217828E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="3">
+        <v>73263027</v>
+      </c>
+      <c r="C4" s="3">
+        <v>446386</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10">
+        <f>B4/B$2*100</f>
+        <v>130.99421880920232</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" si="0"/>
+        <v>89.907625756255598</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="15">
+        <f t="shared" ref="H4:H21" si="1">(C4-C$2)/C$2</f>
+        <v>0.4952701887904814</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" ref="J4:J21" si="2">(B4-B3)/B3</f>
+        <v>0.23703389695859095</v>
+      </c>
+      <c r="K4" s="15">
+        <f t="shared" ref="K4:K21" si="3">(C4-C3)/C3</f>
+        <v>0.22958139483636744</v>
+      </c>
+      <c r="M4" s="16">
+        <f t="shared" ref="M4:M21" si="4">(B4-B3)/B3</f>
+        <v>0.23703389695859095</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="3">
+        <v>75357835</v>
+      </c>
+      <c r="C5" s="3">
+        <v>427158</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10">
+        <f t="shared" ref="E4:F21" si="5">B5/B$2*100</f>
+        <v>134.73973341256792</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" si="0"/>
+        <v>92.478352375225498</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="15">
+        <f t="shared" si="1"/>
+        <v>0.43086168316964346</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="2"/>
+        <v>2.859297637265247E-2</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" si="3"/>
+        <v>-4.3074827615561417E-2</v>
+      </c>
+      <c r="M5" s="16">
+        <f t="shared" si="4"/>
+        <v>2.859297637265247E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="3">
+        <v>72640170</v>
+      </c>
+      <c r="C6" s="3">
+        <v>410826</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10">
+        <f t="shared" si="5"/>
+        <v>129.8805511177917</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>89.143262115429451</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="15">
+        <f t="shared" si="1"/>
+        <v>0.37615398014283224</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="2"/>
+        <v>-3.6063469710880099E-2</v>
+      </c>
+      <c r="K6" s="15">
+        <f t="shared" si="3"/>
+        <v>-3.8234096048768838E-2</v>
+      </c>
+      <c r="M6" s="16">
+        <f t="shared" si="4"/>
+        <v>-3.6063469710880099E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="3">
+        <v>70832169</v>
+      </c>
+      <c r="C7" s="3">
+        <v>405003</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10">
+        <f t="shared" si="5"/>
+        <v>126.6478471428214</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>86.924502067814501</v>
+      </c>
+      <c r="G7" s="13"/>
+      <c r="H7" s="15">
+        <f t="shared" si="1"/>
+        <v>0.35664853349054709</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="2"/>
+        <v>-2.4889823358067581E-2</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" si="3"/>
+        <v>-1.4173883834031925E-2</v>
+      </c>
+      <c r="M7" s="16">
+        <f t="shared" si="4"/>
+        <v>-2.4889823358067581E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="3">
+        <v>71368426</v>
+      </c>
+      <c r="C8" s="3">
+        <v>422021</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10">
+        <f t="shared" si="5"/>
+        <v>127.6066741210729</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="0"/>
+        <v>87.58259108814903</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="15">
+        <f t="shared" si="1"/>
+        <v>0.41365414762906488</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="2"/>
+        <v>7.5708115051510002E-3</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" si="3"/>
+        <v>4.2019441831295079E-2</v>
+      </c>
+      <c r="M8" s="16">
+        <f t="shared" si="4"/>
+        <v>7.5708115051510002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="3">
+        <v>71466160</v>
+      </c>
+      <c r="C9" s="3">
+        <v>441710</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10">
+        <f t="shared" si="5"/>
+        <v>127.78142241506704</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="0"/>
+        <v>87.702529237792533</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="15">
+        <f t="shared" si="1"/>
+        <v>0.47960687631476695</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="2"/>
+        <v>1.3694291086088965E-3</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="3"/>
+        <v>4.6654076455910964E-2</v>
+      </c>
+      <c r="M9" s="16">
+        <f t="shared" si="4"/>
+        <v>1.3694291086088965E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="2">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="3">
+        <v>70244323</v>
+      </c>
+      <c r="C10" s="3">
+        <v>456397</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10">
+        <f t="shared" si="5"/>
+        <v>125.59677908430243</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="0"/>
+        <v>86.203103562531453</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="18">
+        <f t="shared" si="1"/>
+        <v>0.52880428228799592</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="2"/>
+        <v>-1.7096721021529631E-2</v>
+      </c>
+      <c r="K10" s="15">
+        <f t="shared" si="3"/>
+        <v>3.3250322609857143E-2</v>
+      </c>
+      <c r="M10" s="16">
+        <f t="shared" si="4"/>
+        <v>-1.7096721021529631E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="2">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="3">
+        <v>66912870</v>
+      </c>
+      <c r="C11" s="3">
+        <v>438443</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
+        <f t="shared" si="5"/>
+        <v>119.64014446102138</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="0"/>
+        <v>82.114779044510172</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="15">
+        <f t="shared" si="1"/>
+        <v>0.46866332587461312</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="2"/>
+        <v>-4.742665111883846E-2</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="3"/>
+        <v>-3.9338558316553349E-2</v>
+      </c>
+      <c r="M11" s="16">
+        <f t="shared" si="4"/>
+        <v>-4.742665111883846E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="2">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="3">
+        <v>69702191</v>
+      </c>
+      <c r="C12" s="3">
+        <v>462602</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10">
+        <f t="shared" si="5"/>
+        <v>124.62744761194229</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="0"/>
+        <v>85.537804803220141</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="15">
+        <f t="shared" si="1"/>
+        <v>0.54958932375758718</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="2"/>
+        <v>4.168586700884299E-2</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="3"/>
+        <v>5.5101803427127359E-2</v>
+      </c>
+      <c r="M12" s="16">
+        <f t="shared" si="4"/>
+        <v>4.168586700884299E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="2">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="3">
+        <v>63621828</v>
+      </c>
+      <c r="C13" s="3">
+        <v>430166</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10">
+        <f t="shared" si="5"/>
+        <v>113.75576466521696</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="0"/>
+        <v>78.076046485942541</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="15">
+        <f t="shared" si="1"/>
+        <v>0.44093765492476517</v>
+      </c>
+      <c r="J13" s="18">
+        <f t="shared" si="2"/>
+        <v>-8.7233455832112936E-2</v>
+      </c>
+      <c r="K13" s="18">
+        <f t="shared" si="3"/>
+        <v>-7.0116428376876885E-2</v>
+      </c>
+      <c r="M13" s="16">
+        <f t="shared" si="4"/>
+        <v>-8.7233455832112936E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="3">
+        <v>71623978</v>
+      </c>
+      <c r="C14" s="3">
+        <v>500350</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10">
+        <f t="shared" si="5"/>
+        <v>128.0636008408101</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="0"/>
+        <v>87.896201848147555</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="15">
+        <f t="shared" si="1"/>
+        <v>0.67603472994519853</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="2"/>
+        <v>0.12577680100609495</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" si="3"/>
+        <v>0.16315561899359782</v>
+      </c>
+      <c r="M14" s="16">
+        <f t="shared" si="4"/>
+        <v>0.12577680100609495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="2">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="3">
+        <v>76116833</v>
+      </c>
+      <c r="C15" s="3">
+        <v>570533</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10">
+        <f t="shared" si="5"/>
+        <v>136.09682107545888</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="0"/>
+        <v>93.409786837164205</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="15">
+        <f t="shared" si="1"/>
+        <v>0.91112845524097918</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="2"/>
+        <v>6.2728364515023172E-2</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="3"/>
+        <v>0.14026781253122814</v>
+      </c>
+      <c r="M15" s="16">
+        <f t="shared" si="4"/>
+        <v>6.2728364515023172E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="2">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="3">
+        <v>78427889</v>
+      </c>
+      <c r="C16" s="3">
+        <v>606143</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10">
+        <f t="shared" si="5"/>
+        <v>140.22898688597502</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="0"/>
+        <v>96.245890755580646</v>
+      </c>
+      <c r="G16" s="13"/>
+      <c r="H16" s="15">
+        <f t="shared" si="1"/>
+        <v>1.03041215012126</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="2"/>
+        <v>3.0361956861762757E-2</v>
+      </c>
+      <c r="K16" s="15">
+        <f t="shared" si="3"/>
+        <v>6.2415320410914008E-2</v>
+      </c>
+      <c r="M16" s="16">
+        <f t="shared" si="4"/>
+        <v>3.0361956861762757E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="2">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="3">
+        <v>81487000</v>
+      </c>
+      <c r="C17" s="3">
+        <v>656033</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10">
+        <f t="shared" si="5"/>
+        <v>145.69867428635553</v>
+      </c>
+      <c r="F17" s="10">
+        <f>B17/B$17*100</f>
+        <v>100</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="15">
+        <f t="shared" si="1"/>
+        <v>1.1975299130411481</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="2"/>
+        <v>3.9005397684489504E-2</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" si="3"/>
+        <v>8.2307310321161842E-2</v>
+      </c>
+      <c r="M17" s="16">
+        <f t="shared" si="4"/>
+        <v>3.9005397684489504E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="2">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="3">
+        <v>80392414</v>
+      </c>
+      <c r="C18" s="3">
+        <v>658194</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10">
+        <f t="shared" si="5"/>
+        <v>143.74155561598593</v>
+      </c>
+      <c r="F18" s="10">
+        <f>B18/B$17*100</f>
+        <v>98.656735430191318</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="H18" s="15">
+        <f t="shared" si="1"/>
+        <v>1.2047686680154892</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="2"/>
+        <v>-1.3432645698086811E-2</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="3"/>
+        <v>3.2940416107116563E-3</v>
+      </c>
+      <c r="M18" s="16">
+        <f t="shared" si="4"/>
+        <v>-1.3432645698086811E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="2">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="3">
+        <v>78705827</v>
+      </c>
+      <c r="C19" s="3">
+        <v>683291</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10">
+        <f t="shared" si="5"/>
+        <v>140.72593975126395</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" ref="F19:F21" si="6">B19/B$17*100</f>
+        <v>96.586973382257284</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="15">
+        <f t="shared" si="1"/>
+        <v>1.2888367076226335</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="2"/>
+        <v>-2.0979429725794776E-2</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" si="3"/>
+        <v>3.8130095382212542E-2</v>
+      </c>
+      <c r="M19" s="16">
+        <f t="shared" si="4"/>
+        <v>-2.0979429725794776E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="2">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="3">
+        <v>79303092</v>
+      </c>
+      <c r="C20" s="3">
+        <v>711396</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="19">
+        <f t="shared" si="5"/>
+        <v>141.79384897233774</v>
+      </c>
+      <c r="F20" s="19">
+        <f t="shared" si="6"/>
+        <v>97.319930786505822</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="15">
+        <f t="shared" si="1"/>
+        <v>1.3829807189848995</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="2"/>
+        <v>7.5885740962991213E-3</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="3"/>
+        <v>4.1131816458873309E-2</v>
+      </c>
+      <c r="M20" s="17">
+        <f t="shared" si="4"/>
+        <v>7.5885740962991213E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="2">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="3">
+        <v>79462026</v>
+      </c>
+      <c r="C21" s="3">
+        <v>718416</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10">
+        <f t="shared" si="5"/>
+        <v>142.07802280496168</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="6"/>
+        <v>97.514972940469036</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="15">
+        <f t="shared" si="1"/>
+        <v>1.4064957860463869</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="2"/>
+        <v>2.0041337101963188E-3</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" si="3"/>
+        <v>9.8679216638834066E-3</v>
+      </c>
+      <c r="M21" s="16">
+        <f t="shared" si="4"/>
+        <v>2.0041337101963188E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="J22" s="15"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="14">
+        <f>B20/B2*100</f>
+        <v>141.79384897233774</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="14">
+        <f>F21</f>
+        <v>97.514972940469036</v>
+      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1">
+        <f>A10</f>
+        <v>2008</v>
+      </c>
+      <c r="E26"/>
+      <c r="F26"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="1">
+        <f>A13</f>
+        <v>2011</v>
+      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="20">
+        <f>M20</f>
+        <v>7.5885740962991213E-3</v>
+      </c>
+      <c r="E28"/>
+      <c r="F28"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="E29"/>
+      <c r="F29"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="E30"/>
+      <c r="F30"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="E31"/>
+      <c r="F31"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="E32"/>
+      <c r="F32"/>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E33"/>
+      <c r="F33"/>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E34"/>
+      <c r="F34"/>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E35"/>
+      <c r="F35"/>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E36"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E37"/>
+      <c r="F37"/>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E38"/>
+      <c r="F38"/>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E39"/>
+      <c r="F39"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="J3:J21">
+    <cfRule type="top10" dxfId="2" priority="2" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K21">
+    <cfRule type="top10" dxfId="1" priority="1" bottom="1" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>